--- a/500all/speech_level/speeches_CHRG-114hhrg99930.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99930.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. The subcommittee will come to order. The subcommittee is meeting today to hear testimony on a variety of maritime transportation safety and stewardship programs implemented and enforced by the Coast Guard. Actually, this hearing is going to cover everything.    [Laughter.]</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Thank you, Mr. Chairman. Sorry about your illness. And I expect I am going to separate myself from you.    [Laughter.]</t>
   </si>
   <si>
@@ -91,18 +85,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Thomas. Well, thank you. Good morning, Mr. Chairman and Ranking Member, distinguished members of the subcommittee. Thank you for your continued strong support of our Coast Guard and for the opportunity to talk with you today about our maritime prevention program.    As you know and as you said, maintaining and sustaining a robust maritime industry and maritime transportation system is a national security imperative, and our Coast Guard prevention program plays a key role. The Coast Guard concept of operations for prevention brings to bear our unique authorities and capabilities on the task of ensuring a safe, secure, environmentally sound, productive, and efficient global maritime transportation system, and on helping the maritime industry meet the triple challenge over the coming decades of growing capacity while reducing environmental footprint in the face of ever-increasing complexity.    We do this by developing smart risk-based standards which include both domestic and international regulations; by providing a well-trained workforce in our ports that can ensure compliance with those standards and provide the level playing field the industry demands; and by conducting investigations into accidents and violations of law so that both the standards and the compliance procedures can be improved, as we are currently doing in the case of the El Faro.    Thanks in large part to oversight provided by this committee, we have made significant improvements in our regulatory development program since 2009. We have added staff, reduced backlogs, cut our average age of our projects, and implemented process improvements. Most of the significant rules that we develop are developed in response to congressional mandates. In every case we work closely with all of our stakeholders, including the public and the industry, to ensure congressional intent is met, while providing maximum regulatory flexibility and minimum burden.    A perfect example is the subchapter M towing vessel regulation, which will apply to about 6,000 towing vessels, and will effectively double the size of the U.S.-inspected fleet. This will significantly challenge the Coast Guard in terms of our resources. As a result, we will rely heavily on the use of third parties to meet the inspection and audit demands and to provide the industry the needed flexibility.    We have developed a robust implementation plan for subchapter M, and we will bring industry into our implementation team as soon as the rule publishes. We have already developed a very comprehensive outreach plan that engages both internal and external stakeholders.    But we know from experience that the publication of the final rule is really just the end of the first phase, and we are focused on smooth implementation. You mentioned our ballast water regulation, for example, which was published 4 years ago, and we are still in the implementation phase. Some of the challenges associated with that rule are due to overlapping jurisdictions between the Coast Guard and the EPA and between the States and the Federal Government. We appreciate the efforts of this committee to reduce those redundancies and to embrace standards based on best available technology that is both economically and operationally practical. We remain focused on type approval of ballast water management systems.    You mentioned the TRB [Transportation Research Board] report, sir, and we welcome that report as part of our constant effort to improve our regulatory programs. As you mentioned, the report concluded that compliance with Coast Guard regulations is not an impediment to the competitiveness of the U.S. flag, and I agree. But I also agree with the recommendations that there is room for further improvement in the Coast Guard regulatory programs, and I have already taken steps in line with the committee's recommendations.    Of the three recommendations in the report that are specific to the Maritime Security Program, two have already been enacted. To address the remaining recommendations, I have established a working group with industry operators to review and prioritize and suggest courses of action for each, and that group has its first meeting next week. We thank the TRB team for their efforts on our behalf.    And finally, you mentioned the SOLAS [Safety of Life at Sea] requirements, the SOLAS amendments that have become known as the container weight or VGM [verified gross mass] amendments. As these amendments were developed at the IMO [International Maritime Organization], our delegation was mindful of the existing regulatory structure in the U.S. which already ensures that the weight of a container is known before it is shipped over road or rail, is lifted out of the terminal, or is loaded at a port on a ship. And it is precisely because of this underlying regulatory framework that additional regulations are not needed in the U.S.    The SOLAS amendments may, however, require a change in the status quo in terms of how weights are verified and how that information is transmitted. I have been in contact with the key stakeholders, including those who will testify today, to ensure they understand the amendments and understand the flexibility that exists to achieve compliance. I will continue to facilitate discussions with them as I finalize their compliance strategies. There is no reason these amendments should cause any delays in our supply chain.    Thank you again for your support, and I look forward to our discussion.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Admiral.    Mr. Michel?</t>
   </si>
   <si>
-    <t>Michel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Michel. Thank you. Good morning, Chairman Hunter, Mr. Garamendi, and members of the committee. My name is Keith Michel and I am president of Webb Institute, a college that focuses on naval architecture and marine engineering. I spent 40 years designing ships and--but I am here representing a National Academies' committee that was a committee mandated by Congress and tasked by the U.S. Coast Guard with evaluating whether Coast Guard regulations are an impediment to the competitiveness of the U.S.-flag fleet.    The committee met once, heard from industry, and had many discussions amongst committee members. And we came out with the conclusion, as was mentioned earlier, that--or the finding that Coast Guard is not an impediment to competitiveness. The reasoning was that we found if you consider the increased costs of U.S.-flagged ships over their international counterparts, the percentage of that increased cost that we could attribute to the Coast Guard was less than 1 percent.    Having said that, we found there were a number of areas where Coast Guard could improve processes and further reduce costs. So the report concentrates on that.    There are nine recommendations. The first three relate to the Maritime Security Program. That program was put in place quite a few years ago, with the intent that there be a seamless transition from international flag to U.S. flag. And there has been some challenges with the program, as we have heard from industry. The cost of reflagging is in the range of $500,000 to $1 million. It includes about $250,000 related to requirements over and above the IMO related to engine room alarms and systems. So there is a significant cost in that transition.    Once a ship is in MSP there are ongoing costs related to the fact that--at least originally--the Coast Guard implemented the CFR, rather than the alternative compliance program. So there were issues with the cost of following the CFR, and especially involving replacement of equipment when it was required to be Coast Guard type approved equipment.    And finally, there were concerns with the MSP program. Coast Guard initially required that ships run with a watchstander in the engine room for up to 3,000 hours upon transition. These are ships that were operating in the international fleet without a watchstander. They had already been approved for unattended engine room operation, and had been operating that way. With the requirement that the watchstanding occur for up to 3,000 hours, that is an additional cost burden on the shipowner because that person could have been doing other work, maintenance work.    The Coast Guard in May of 2015 made a number of changes. They have softened the impact of the reliance on CFR by allowing what they call MSP Select. After 3 years a ship can largely follow the ACP [Alternative Compliance Program] processes, which are more efficient. The committee recommends that be the case immediately, rather than waiting 3 years.    The committee also recommends the Coast Guard look at, rather than using Coast Guard-type approval for these vessels, they consider allowing classification society approval for equipment. Again, these ships are built under international registry, the systems are all in place. And when you have to replace it with a Coast Guard--due to maintenance, if you have to replace equipment with Coast Guard-type approved, it can be quite costly.    So those--and also the committee recommended that the requirement for watchstanding be reduced to 1,000 hours, and that consideration be given to eliminating it altogether if the crew is familiar with that particular ship and its automation systems.    So those were three recommendations related to MSP. There were a series of other recommendations. The committee recommends that Coast Guard, with assistance from industry, look at the CFR regulations and do a risk-based assessment. That is a very extensive effort. It is recognized that will take time, so we recommended the Coast Guard prioritize and, working with industry, determine which of the regulations are most burdensome.    There is also a recommendation that, in general, Coast Guard reconsider the equipment type approval, which can be quite burdensome on shipowners because most equipment is not U.S.-type-approved. The reason being the U.S. market is relatively small. And so if construction could use more of the internationally approved equipment, and if Coast Guard could rely on the approval processes of classification societies, the committee felt that would be more efficient without compromising safety.    And finally, the committee recommends that Coast Guard rely even more on classification society and have less redundant inspections, but that it enhance its audit program over class. Again, this has become an issue after the committee met more in focus because of the El Faro accident. The Coast Guard is evaluating how well its whole ACP process is working. So we understand that this recommendation will have to be evaluated, taking into consideration what the Coast Guard learns from its El Faro evaluation.    And so, those are the key recommendations. There were a few others in the report that--the report, again, is available on the NAE [National Academy of Engineering] Web site. Thank you.</t>
   </si>
   <si>
@@ -646,9 +634,6 @@
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. I had a hearing downstairs. We should have exchanged rooms, because we have fewer people for that hearing, even though it is important.    In any case, Admiral, I--you know, the SOLAS requirements on shipping, on containers, are of particular concern to shippers in the Pacific Northwest of agricultural products. And the Coast Guard has taken a position that you feel that the U.S., with our current systems, is in compliance, and that it won't require dramatic changes.    They have an opposite opinion, which is that this potentially becomes disruptive because it involves coming to a determination of both the weight of the content and the container. The containers are beyond the control of the agricultural producers, but they feel that, you know, they are going to be essentially having to sign off on something over which they don't have total control.    And there is a good deal of confusion out there. How is it that you know or feel or can state that we are currently in compliance with these new standards? And if we are in compliance with these new standards, then I would assume that there will not be the sort of disruptions that the--some in the industry are anticipating.</t>
   </si>
   <si>
@@ -688,9 +673,6 @@
     <t>412463</t>
   </si>
   <si>
-    <t>Bob Gibbs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibbs. Thank you, Mr. Chairman.    Admiral, not to beat the ballast water to death--the chairman did a pretty good job--that is more of where my questions are going to, since I am from Ohio and represent the Great Lakes region. And start with my understanding on the EPA, they can--States can add additional requirements onto the--wherever the rules might be. Is that true?</t>
   </si>
   <si>
@@ -904,9 +886,6 @@
     <t>400607</t>
   </si>
   <si>
-    <t>Mark Sanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanford. I thank the chairman. I guess the first question is are we making the perfect the enemy of the good with regard to the ballast water discharge issue? I mean we have had different iterations of the same question.    I have been approached by a number of different users in the Port of Charleston on this issue. It seems to be important. They brought up the UVA--the UV technology, and suggested that, you know, if it is good enough for the international standard, why isn't it good enough--a little bit--would you just flesh that just a little bit as to why we couldn't go with something that would give them certainty, or a greater degree of certainty? It may not be the perfect, but it would be the good, and it would allow them to move forward, particularly on the UV front, given some of the comments that they have offered in my direction.</t>
   </si>
   <si>
@@ -1012,27 +991,18 @@
     <t xml:space="preserve">    Mr. Hunter. We don't have to restart up, because we have already started. And I introduced everybody while you were getting seated. So thank you all for being here and taking time. And I am going to go ahead and just start from left to right.    Mr. Allegretti, you are recognized.</t>
   </si>
   <si>
-    <t>Allegretti</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allegretti. Good morning, Mr. Chairman and Ranking Member Garamendi. Thank you for the opportunity to testify today. This hearing comes at a very consequential time, both for the towboat and barge industry and for our country. We face a year of great challenge and extraordinary opportunity, and we need the bipartisan leadership of this subcommittee to successfully confront these challenges and take maximum advantage of these opportunities that are before us.    I come before you today with four requests. First and foremost, please continue to lead and vocally and actively support the Jones Act, and please strongly oppose the inclusion of measures to weaken the law in legislation that may originate in other committees.    The Jones Act is critical to our Nation's economic, homeland, and national security, and to the hundreds of thousands of good, family-wage American jobs and the billions of dollars of investments made by American companies in American-built vessels.    Those few but vocal critics who assert that the Jones Act raises the price of gasoline at the pump, or that repeal of the Jones Act will solve Puerto Rico's economic woes are, quite simply, wrong. Repealing or weakening the Jones Act won't make it a penny cheaper to fill up your car, and it will have no effect on Puerto Rican Government debt. What it will certainly do is destroy the domestic maritime industry, it will kill American jobs, and it will undermine U.S. homeland security: a bad deal, if ever there was one.    Second, please exercise your oversight responsibility and pay careful attention to the Coast Guard's implementation of the towing vessel inspection rule slated for publication this spring. This subcommittee's leadership was instrumental in the passage of the 2004 law that required this rulemaking and enjoyed AWO's strong support. We look forward to working with the Coast Guard to implement this rule that will raise the regulatory floor and take safety and environmental protection in our industry to a new and historic level without disrupting the efficient flow of maritime commerce. Please stay close to the implementation of this rule to ensure that it achieves both of those goals.    Third, please reaffirm by your words and your actions the Coast Guard's preeminent role in the regulation of navigation and vessel operations. The safe and efficient flow of interstate commerce depends upon clear Federal statutes and regulations consistently and uniformly applied nationwide. When States or localities muddy the waters by establishing their own requirements for vessels and interstate commerce, it not only does violence to the U.S. Constitution, but it places mariners, vessels, and the environment at risk. We urge you to support the Coast Guard in finalizing its proposed preemption statement, and speaking out in opposition when States attempt to usurp the Coast Guard's regulatory authority.    Fourth and finally, please pass the Vessel Incidental Discharge Act this year, and put an end to the dysfunctional regulatory system in which two Federal agencies and more than two dozen States regulate ballast water and other vessel discharges in overlapping and inconsistent ways. We have a real window of opportunity for the 114th Congress to accomplish what previous Congresses have not: to establish a uniform, science-based Federal framework for the regulation of vessel discharges that is good for the environment, good for the economy, and good for the American taxpayer.    Chairman Hunter, thank you for sponsoring this much-needed legislation, and we urge every member of the subcommittee to cosponsor H.R. 980 and to communicate to Chairman Shuster and Ranking Member DeFazio your support for passage this year.    Our industry very much appreciates this subcommittee's effective oversight of and your long record of support for the American maritime industry, and thank you for holding this hearing today and for the opportunity to appear before you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. For America.    Mr. Butler, you are recognized.</t>
   </si>
   <si>
-    <t>Butler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butler. Chairman Hunter, Ranking Member Garamendi, distinguished members of the subcommittee, thank you for the invitation to testify today. I would ask that my full statement be included in the record.    The World Shipping Council represents the liner shipping industry, and our members operate about 90 percent of global container ship capacity. Today I would like to address an amendment to the Safety of Life at Sea, or SOLAS, convention, that becomes effective on July 1 of this year. You have heard a bit about this already today.    That SOLAS amendment addresses a very serious safety problem that has affected the container shipping industry for many years. That safety problem is the fact that in far too many cases the packed container weight provided to the carrier by the shipper is inaccurate.    In response to this problem of misdeclared container weights, industry and Governments began a discussion at the International Maritime Organization about how to fix the problem. That discussion at the IMO began in earnest in 2010, and continued over the next 4 years. Governments, shippers, labor, insurance providers, terminal operators, and carriers all participated. The United States Government, through the U.S. Coast Guard, actively participated in that process.    In 2014 the IMO member countries unanimously adopted a revised regulation under SOLAS that requires the shipper to provide an accurate gross weight for each packed container before that container can be loaded on to a ship for international transportation. The regulation provides two methods that the shipper can use to establish an accurate weight. Under method one the container is weighed after it is packed. Under method two the shipper weighs the cargo and the packing material and then adds that weight to the empty or tare weight of the container. And the tare weight of the container is conspicuously painted on the door of every container.    The amended SOLAS regulation requires two things that the existing SOLAS regulation does not. First, the amended regulation explicitly requires that the loaded container must be weighed. Estimating weights is no longer allowed. Second, the amended regulation now explicitly states that the carrier and the marine terminal operator may not load a packed container unless the shipper has provided a verified weight. Without a verified weight, the carrier and the marine terminal cannot put the container on the ship.    Compliance date is 2\\1/2\\ months away. A tremendous amount of work has been done around the world to make sure that the new regulation can be implemented smoothly. Carriers, shippers, and terminal operators are in the process of adjusting their procedures and their communication channels in order to be able to share the verified gross weight information that needs to be provided before the container goes on the ship.    Although companies worldwide are preparing for compliance and making very good progress, there is disagreement from a group of U.S. exporters that you will hear from today. I address that situation in length in my written testimony. But to summarize, there are some shippers that would prefer to provide only part of the required weight information, and to have the carrier then provide the other part.    The problem with that approach is that it will not work with the information technology solutions the carriers have built to implement the SOLAS amendment. Those IT systems are designed to receive and process a complete verified gross mass number, a number that includes both the content of the container and the container weight itself. That is what the regulation says. And because that is what the regulation says, that is the way carriers have built their systems.    So, if shippers only provide the cargo weight, as a few wish to do, that would trigger a manual data handling process by the carriers. Such a manual process would not be able to efficiently handle the documentation flow. And that scenario, if it comes to pass, could lead to disruptions in cargo flow, and that is something everybody wants to avoid.    Obtaining and using accurate weights to stow ships is a shared safety responsibility of carriers, shippers, and terminal operators. The amended SOLAS regulation spells out what each party in the chain needs to do. Those tasks are reasonable and necessary. And if everyone does their part, the system will work and will make international shipping safer and more efficient for everyone. I hope that we can use the time that we have now--between now and July 1 to work together toward that goal. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Mr. Butler. We will just go all the way through.    Mr. Crowley, you are recognized.</t>
   </si>
   <si>
-    <t>Crowley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crowley. Good morning, Mr. Chairman and Mr. Ranking Member. I appreciate the invitation to be here today and your recognition of the importance of marine safety throughout our maritime transportation chain. I represent the marine terminal operator and stevedoring industry. I, from a visual standpoint, look at them as that engine within the fence in our ports that make the economy work, that make the intermodal transfer work safely, productively for our businesses, exports and imports.    Despite being a volume-based, cycle-time industry, safety is always job one for industry members. Safety, it comes in many forms. But for today's purpose we are looking at container weights. Containers originate from all over the world. They are carried by multiple flag vessels. They arrive at marine terminals, both here and abroad. The importance of having a consistent safety standard is almost without question. Those safety standards the National Association of Waterfront Employers look forward to.    We look forward to the amendments to ensure that that is continued, and that the condition, the contents, and the weight processes that are available and the records provided to us are dependable for marine terminal--those inconsistencies, if they are wrong, show up immediately and have the potential of grinding operations literally to a halt.    And we look forward to increased productivity. Toward that end, our members have worked hard to reengineer their processes, including technology solutions in concordance with our customers, those that Mr. Butler represents, and provide systems that are more agile, that provide a faster, better, safer system towards the improvement of our marine cargo transportation system.    Thank you for your attention, and look forward to questions from you today.</t>
   </si>
   <si>
@@ -1040,9 +1010,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hunter. Ms. Lemm, you are recognized.</t>
-  </si>
-  <si>
-    <t>Lemm</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Lemm. I am here today representing many of your constituents that are moving thousands and thousands of ocean container goods, specifically agricultural goods and forest products. These exports are critical to our economy, and they are critical to our Nation. I am the vice president at Mallory Alexander, based in Memphis, Tennessee. And our responsibility is to prepare the export documentation for exporters, as well as provide ocean services.    I am also the chair of the SOLAS--Safety of Life at Sea--Agriculture Transportation Coalition's Container Weight Committee. Today our coalition is very strong. We come here with one voice for both your small farmer in your district, as well as your largest exporter in your district. The voice is one in unison for one reason: we are very, very concerned about these new regulations the World Shipping Council has announced, because there are only two methods that they have announced that are, in their minds, regulatory. And they are asking the shipper to abide.    My goal today is, first and foremost, to share with you that the U.S. exporter is committed to safety. We also have in place today, as the admiral said, a compliant method in which we report our weights to the ships. And we report both gross weights and net weights every day on our bill of ladings. This has been approved and with the SOLAS regulation for decades.    The problem, in a nutshell, is that there is flexibility, as the admiral said, in the regulation. This is not a change in regulation. These are modifications. This is the heart of the disagreement. The guidelines that have been presented by the World Shipping Council are mandatory in tone. They are required in tone. They are not flexible, they are not commercial in setting, ``Let's go discuss this.''    And I am here to tell you that the two methods proposed--the first one, scaling, is nearly impossible for most of your ag and forest product shippers. Why? Where are the scales? Just last week, we saw the southern ports of the west coast announce that they were not ready or capable to weigh our containers. I live in New Orleans. There are no scales in New Orleans. Where are the scales? You know how expensive it is? Two hundred to two hundred and fifty dollars to weigh a container. Remember, they are asking us to certify. It is redundant. We are certifying today.    The admiral made reference to laws that exist today. We have the Intermodal Safety Act, which mandates that we certify the weights that we produce. We produce a bill of lading. Shipper load and count, certified.    Second method that has been proposed is that we not only submit our gross weights, but we are also asked to submit the tare weight of a container we don't own or lease. We have members that their legal departments are saying, ``There is no way we are going to allow you to certify or report on a weight on a piece of equipment you don't own or lease.'' The ramifications for port disruption are huge.    We are at total opposite ends. Many exporters--I was just at a conference last week--don't even have a field for tare weight. These IT systems that we talked about today honestly just started getting developed November, December. They have not been rolled out. There is no EDI [Electronic Data Interchange] standard. There are multiple portals, multiple carriers, multiple, multiple IT elements that the average exporter hasn't even begun to understand.    So, I am outlining one cost. I am outlining two--this window, VGM, is going to require a new cutoff, a totally new cutoff. We have one member that--they move 10,000 containers. They believe they will only be able to move half that number of containers because of this new window, this tighter window. These are huge ramifications.    We believe that, first and foremost, the solution is to recognize that the United States is not the problem. These incidents that they talk about did not happen off of our shores.    In the spirit of working together with the carriers we have tried for months now to find best practices. We have said that we will certify yet again in some kind of business arrangement--perhaps in contract--that our weights are true and correct. We have been met with the answer ``no'' each and every time.    In summary, I ask this committee please to help us, even if it is through legislative processes, to acknowledge that the processes that exist today are indeed compliant, that there is flexibility in this regulation. And if, in fact, the ocean carriers refuse to cooperate, we ask you to please seek the opinion of the Federal Maritime Commission for this collective activity.    In summary, I do ask, please, that you ask the Coast Guard for written statement about the many methods in which we can report and verify gross mass. I think there is some ambiguous discussion and confusion because it has only been in dialogue.    We thank you very much for the opportunity to talk to you today.</t>
@@ -1891,11 +1858,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1917,11 +1882,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1943,11 +1906,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1969,11 +1930,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1993,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2019,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2047,11 +2002,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2071,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2099,11 +2050,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2123,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2151,11 +2098,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2175,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2203,11 +2146,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2227,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2255,11 +2194,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2279,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2307,11 +2242,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2331,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2359,11 +2290,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2383,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2411,11 +2338,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2435,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2463,11 +2386,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2487,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2515,11 +2434,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2539,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2567,11 +2482,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2591,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2619,11 +2530,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2645,11 +2554,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2669,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2697,11 +2602,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2721,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2749,11 +2650,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2773,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2801,11 +2698,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2825,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2853,11 +2746,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2877,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2905,11 +2794,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2929,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2957,11 +2842,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2981,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3009,11 +2890,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3033,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3061,11 +2938,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3085,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3113,11 +2986,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3137,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3165,11 +3034,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3189,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3217,11 +3082,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3241,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3269,11 +3130,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3293,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3321,11 +3178,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3345,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3373,11 +3226,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3397,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3425,11 +3274,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3449,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3477,11 +3322,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3501,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3529,11 +3370,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3553,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3581,11 +3418,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3605,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3633,11 +3466,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3657,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3685,11 +3514,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3709,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3737,11 +3562,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3761,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3789,11 +3610,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3813,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3841,11 +3658,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3865,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3893,11 +3706,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3917,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3945,11 +3754,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3969,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3997,11 +3802,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4021,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4049,11 +3850,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4073,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4101,11 +3898,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4125,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4153,11 +3946,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4177,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4205,11 +3994,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4229,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4257,11 +4042,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4281,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4309,11 +4090,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4333,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4361,11 +4138,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4385,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4413,11 +4186,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4437,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4465,11 +4234,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4489,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4517,11 +4282,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4541,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4569,11 +4330,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4593,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4621,11 +4378,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4645,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4673,11 +4426,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4697,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4725,11 +4474,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4749,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4777,11 +4522,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4801,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4829,11 +4570,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4853,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4881,11 +4618,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4905,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4933,11 +4666,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4957,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4985,11 +4714,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5009,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5037,11 +4762,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5063,11 +4786,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5087,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5115,11 +4834,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5139,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5167,11 +4882,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5191,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5219,11 +4930,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5243,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5271,11 +4978,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5295,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5323,11 +5026,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5347,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5375,11 +5074,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5399,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5427,11 +5122,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5451,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5479,11 +5170,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5503,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5531,11 +5218,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5555,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5583,11 +5266,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5607,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5635,11 +5314,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5659,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5687,11 +5362,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5711,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5739,11 +5410,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5763,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5791,11 +5458,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5815,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5843,11 +5506,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5867,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5895,11 +5554,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5919,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5947,11 +5602,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5971,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5999,11 +5650,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6023,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6051,11 +5698,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6075,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6103,11 +5746,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6127,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>24</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6155,11 +5794,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6179,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>24</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6207,11 +5842,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6231,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>24</v>
-      </c>
-      <c r="G169" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6259,11 +5890,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6283,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6311,11 +5938,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6335,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6363,11 +5986,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6387,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6415,11 +6034,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6439,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>24</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6467,11 +6082,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6491,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6519,11 +6130,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6543,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>24</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6571,11 +6178,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6595,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>24</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6623,11 +6226,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6647,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6675,11 +6274,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6699,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>24</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6727,11 +6322,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6751,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6779,11 +6370,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6803,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6831,11 +6418,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6855,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6883,11 +6466,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6907,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6935,11 +6514,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6959,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>24</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6987,11 +6562,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7011,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>209</v>
-      </c>
-      <c r="G199" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7037,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>24</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7063,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>209</v>
-      </c>
-      <c r="G201" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7089,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>24</v>
-      </c>
-      <c r="G202" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7115,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>209</v>
-      </c>
-      <c r="G203" t="s">
+        <v>205</v>
+      </c>
+      <c r="G203" t="s"/>
+      <c r="H203" t="s">
         <v>210</v>
-      </c>
-      <c r="H203" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7141,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>24</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7167,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>209</v>
-      </c>
-      <c r="G205" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7193,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7219,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>209</v>
-      </c>
-      <c r="G207" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7245,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7271,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>209</v>
-      </c>
-      <c r="G209" t="s">
-        <v>210</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7299,11 +6850,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7323,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>223</v>
-      </c>
-      <c r="G211" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7349,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>24</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7375,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>223</v>
-      </c>
-      <c r="G213" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7401,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>24</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7427,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
+        <v>218</v>
+      </c>
+      <c r="G215" t="s"/>
+      <c r="H215" t="s">
         <v>223</v>
-      </c>
-      <c r="G215" t="s">
-        <v>224</v>
-      </c>
-      <c r="H215" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7453,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>24</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7479,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>223</v>
-      </c>
-      <c r="G217" t="s">
+        <v>218</v>
+      </c>
+      <c r="G217" t="s"/>
+      <c r="H217" t="s">
         <v>224</v>
-      </c>
-      <c r="H217" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7505,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>24</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7531,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>223</v>
-      </c>
-      <c r="G219" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7557,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7583,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>223</v>
-      </c>
-      <c r="G221" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7609,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>24</v>
-      </c>
-      <c r="G222" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7635,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>223</v>
-      </c>
-      <c r="G223" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7661,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
-      </c>
-      <c r="G224" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7687,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>223</v>
-      </c>
-      <c r="G225" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7713,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7739,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>223</v>
-      </c>
-      <c r="G227" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7765,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7791,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>223</v>
-      </c>
-      <c r="G229" t="s">
-        <v>224</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7819,11 +7330,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>12</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7843,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>17</v>
-      </c>
-      <c r="G231" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7869,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>24</v>
-      </c>
-      <c r="G232" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7895,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
-      </c>
-      <c r="G233" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7921,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>24</v>
-      </c>
-      <c r="G234" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7947,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
-      </c>
-      <c r="G235" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7973,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>24</v>
-      </c>
-      <c r="G236" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7999,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>17</v>
-      </c>
-      <c r="G237" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8025,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>24</v>
-      </c>
-      <c r="G238" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8051,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>17</v>
-      </c>
-      <c r="G239" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8077,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>24</v>
-      </c>
-      <c r="G240" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8103,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>17</v>
-      </c>
-      <c r="G241" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8129,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>24</v>
-      </c>
-      <c r="G242" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8155,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>17</v>
-      </c>
-      <c r="G243" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8181,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>24</v>
-      </c>
-      <c r="G244" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8207,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>17</v>
-      </c>
-      <c r="G245" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8233,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>24</v>
-      </c>
-      <c r="G246" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8259,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>17</v>
-      </c>
-      <c r="G247" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8285,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>24</v>
-      </c>
-      <c r="G248" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8311,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>17</v>
-      </c>
-      <c r="G249" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8337,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>24</v>
-      </c>
-      <c r="G250" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8363,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>17</v>
-      </c>
-      <c r="G251" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8389,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>24</v>
-      </c>
-      <c r="G252" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8415,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>17</v>
-      </c>
-      <c r="G253" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8441,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>24</v>
-      </c>
-      <c r="G254" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8467,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>17</v>
-      </c>
-      <c r="G255" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8493,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>24</v>
-      </c>
-      <c r="G256" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8519,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
-      </c>
-      <c r="G257" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8545,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>24</v>
-      </c>
-      <c r="G258" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8571,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>17</v>
-      </c>
-      <c r="G259" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8597,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>24</v>
-      </c>
-      <c r="G260" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8623,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>17</v>
-      </c>
-      <c r="G261" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8649,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>24</v>
-      </c>
-      <c r="G262" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8675,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>17</v>
-      </c>
-      <c r="G263" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8701,13 +8144,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>24</v>
-      </c>
-      <c r="G264" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8727,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>17</v>
-      </c>
-      <c r="G265" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8753,13 +8192,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>24</v>
-      </c>
-      <c r="G266" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8779,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>17</v>
-      </c>
-      <c r="G267" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8805,13 +8240,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>24</v>
-      </c>
-      <c r="G268" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8831,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>17</v>
-      </c>
-      <c r="G269" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8857,13 +8288,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>24</v>
-      </c>
-      <c r="G270" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8883,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>17</v>
-      </c>
-      <c r="G271" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8909,13 +8336,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>24</v>
-      </c>
-      <c r="G272" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8935,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>17</v>
-      </c>
-      <c r="G273" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8961,13 +8384,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
-      </c>
-      <c r="G274" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8987,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>17</v>
-      </c>
-      <c r="G275" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9013,13 +8432,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>24</v>
-      </c>
-      <c r="G276" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9039,13 +8456,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>17</v>
-      </c>
-      <c r="G277" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9065,13 +8480,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>24</v>
-      </c>
-      <c r="G278" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9091,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>17</v>
-      </c>
-      <c r="G279" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9117,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>24</v>
-      </c>
-      <c r="G280" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9143,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>17</v>
-      </c>
-      <c r="G281" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9169,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9195,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9223,11 +8626,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9247,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>295</v>
-      </c>
-      <c r="G285" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9273,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>24</v>
-      </c>
-      <c r="G286" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9299,13 +8696,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>295</v>
-      </c>
-      <c r="G287" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9325,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>24</v>
-      </c>
-      <c r="G288" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9351,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>295</v>
-      </c>
-      <c r="G289" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9377,13 +8768,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>24</v>
-      </c>
-      <c r="G290" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9403,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>295</v>
-      </c>
-      <c r="G291" t="s">
+        <v>289</v>
+      </c>
+      <c r="G291" t="s"/>
+      <c r="H291" t="s">
         <v>296</v>
-      </c>
-      <c r="H291" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9429,13 +8816,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9455,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>295</v>
-      </c>
-      <c r="G293" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9481,13 +8864,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>24</v>
-      </c>
-      <c r="G294" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9507,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>295</v>
-      </c>
-      <c r="G295" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9533,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>24</v>
-      </c>
-      <c r="G296" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9559,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>295</v>
-      </c>
-      <c r="G297" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9585,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>24</v>
-      </c>
-      <c r="G298" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9611,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>295</v>
-      </c>
-      <c r="G299" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9637,13 +9008,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9663,13 +9032,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>295</v>
-      </c>
-      <c r="G301" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9689,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>24</v>
-      </c>
-      <c r="G302" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9715,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>295</v>
-      </c>
-      <c r="G303" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9741,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>24</v>
-      </c>
-      <c r="G304" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9767,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>295</v>
-      </c>
-      <c r="G305" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9793,13 +9152,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>24</v>
-      </c>
-      <c r="G306" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9819,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>295</v>
-      </c>
-      <c r="G307" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9845,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>24</v>
-      </c>
-      <c r="G308" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9871,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>295</v>
-      </c>
-      <c r="G309" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9897,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>24</v>
-      </c>
-      <c r="G310" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9923,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>295</v>
-      </c>
-      <c r="G311" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9951,11 +9298,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>12</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9975,13 +9320,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>24</v>
-      </c>
-      <c r="G313" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10001,13 +9344,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>24</v>
-      </c>
-      <c r="G314" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10027,13 +9368,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>24</v>
-      </c>
-      <c r="G315" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10053,13 +9392,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>24</v>
-      </c>
-      <c r="G316" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10081,11 +9418,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10107,11 +9442,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10131,13 +9464,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>24</v>
-      </c>
-      <c r="G319" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10159,11 +9490,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10185,11 +9514,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10209,13 +9536,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>24</v>
-      </c>
-      <c r="G322" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10237,11 +9562,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10261,13 +9584,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10289,11 +9610,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10313,13 +9632,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>24</v>
-      </c>
-      <c r="G326" t="s">
-        <v>338</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10341,11 +9658,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10367,11 +9682,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10391,13 +9704,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>24</v>
-      </c>
-      <c r="G329" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10419,11 +9730,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10445,11 +9754,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>12</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10471,11 +9778,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10497,11 +9802,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>12</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10521,13 +9824,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>17</v>
-      </c>
-      <c r="G334" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10547,13 +9848,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>24</v>
-      </c>
-      <c r="G335" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10573,13 +9872,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>17</v>
-      </c>
-      <c r="G336" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10599,13 +9896,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>24</v>
-      </c>
-      <c r="G337" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10625,13 +9920,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
-      </c>
-      <c r="G338" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10651,13 +9944,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>24</v>
-      </c>
-      <c r="G339" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10677,13 +9968,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>17</v>
-      </c>
-      <c r="G340" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10703,13 +9992,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>24</v>
-      </c>
-      <c r="G341" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10729,13 +10016,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>17</v>
-      </c>
-      <c r="G342" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10755,13 +10040,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>24</v>
-      </c>
-      <c r="G343" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10781,13 +10064,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>17</v>
-      </c>
-      <c r="G344" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10807,13 +10088,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>24</v>
-      </c>
-      <c r="G345" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10833,13 +10112,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>17</v>
-      </c>
-      <c r="G346" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10859,13 +10136,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>24</v>
-      </c>
-      <c r="G347" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10885,13 +10160,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>17</v>
-      </c>
-      <c r="G348" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10911,13 +10184,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>24</v>
-      </c>
-      <c r="G349" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10937,13 +10208,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>17</v>
-      </c>
-      <c r="G350" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10963,13 +10232,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>24</v>
-      </c>
-      <c r="G351" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10989,13 +10256,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>17</v>
-      </c>
-      <c r="G352" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11015,13 +10280,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>24</v>
-      </c>
-      <c r="G353" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11041,13 +10304,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>17</v>
-      </c>
-      <c r="G354" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11067,13 +10328,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>24</v>
-      </c>
-      <c r="G355" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11093,13 +10352,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>17</v>
-      </c>
-      <c r="G356" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11119,13 +10376,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>24</v>
-      </c>
-      <c r="G357" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11145,13 +10400,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>17</v>
-      </c>
-      <c r="G358" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11171,13 +10424,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>24</v>
-      </c>
-      <c r="G359" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11197,13 +10448,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>17</v>
-      </c>
-      <c r="G360" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11223,13 +10472,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>24</v>
-      </c>
-      <c r="G361" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11249,13 +10496,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>17</v>
-      </c>
-      <c r="G362" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11275,13 +10520,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>24</v>
-      </c>
-      <c r="G363" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11301,13 +10544,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>17</v>
-      </c>
-      <c r="G364" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11327,13 +10568,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>24</v>
-      </c>
-      <c r="G365" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11353,13 +10592,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>17</v>
-      </c>
-      <c r="G366" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11379,13 +10616,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>24</v>
-      </c>
-      <c r="G367" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11405,13 +10640,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>17</v>
-      </c>
-      <c r="G368" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11431,13 +10664,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>24</v>
-      </c>
-      <c r="G369" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11457,13 +10688,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>17</v>
-      </c>
-      <c r="G370" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11483,13 +10712,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>24</v>
-      </c>
-      <c r="G371" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11509,13 +10736,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>17</v>
-      </c>
-      <c r="G372" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11535,13 +10760,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>24</v>
-      </c>
-      <c r="G373" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11561,13 +10784,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>17</v>
-      </c>
-      <c r="G374" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11587,13 +10808,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>24</v>
-      </c>
-      <c r="G375" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11613,13 +10832,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>17</v>
-      </c>
-      <c r="G376" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11639,13 +10856,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>24</v>
-      </c>
-      <c r="G377" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11665,13 +10880,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>17</v>
-      </c>
-      <c r="G378" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11691,13 +10904,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>24</v>
-      </c>
-      <c r="G379" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11717,13 +10928,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>17</v>
-      </c>
-      <c r="G380" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11745,11 +10954,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11769,13 +10976,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>295</v>
-      </c>
-      <c r="G382" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11795,13 +11000,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>24</v>
-      </c>
-      <c r="G383" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11821,13 +11024,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>295</v>
-      </c>
-      <c r="G384" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11847,13 +11048,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>24</v>
-      </c>
-      <c r="G385" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11873,13 +11072,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>295</v>
-      </c>
-      <c r="G386" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11899,13 +11096,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>24</v>
-      </c>
-      <c r="G387" t="s">
-        <v>332</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11925,13 +11120,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>295</v>
-      </c>
-      <c r="G388" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11953,11 +11146,9 @@
       <c r="F389" t="s">
         <v>11</v>
       </c>
-      <c r="G389" t="s">
-        <v>12</v>
-      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11977,13 +11168,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>295</v>
-      </c>
-      <c r="G390" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12005,11 +11194,9 @@
       <c r="F391" t="s">
         <v>11</v>
       </c>
-      <c r="G391" t="s">
-        <v>12</v>
-      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12029,13 +11216,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>295</v>
-      </c>
-      <c r="G392" t="s">
-        <v>296</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12057,11 +11242,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>12</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12081,13 +11264,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>17</v>
-      </c>
-      <c r="G394" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12109,11 +11290,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12133,13 +11312,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>24</v>
-      </c>
-      <c r="G396" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12161,11 +11338,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12185,13 +11360,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>24</v>
-      </c>
-      <c r="G398" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12213,11 +11386,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>12</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12237,13 +11408,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>24</v>
-      </c>
-      <c r="G400" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12263,13 +11432,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>24</v>
-      </c>
-      <c r="G401" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12289,13 +11456,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>24</v>
-      </c>
-      <c r="G402" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12317,11 +11482,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>12</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12341,13 +11504,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>24</v>
-      </c>
-      <c r="G404" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12369,11 +11530,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>12</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12393,13 +11552,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>24</v>
-      </c>
-      <c r="G406" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12421,11 +11578,9 @@
       <c r="F407" t="s">
         <v>11</v>
       </c>
-      <c r="G407" t="s">
-        <v>12</v>
-      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12445,13 +11600,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>24</v>
-      </c>
-      <c r="G408" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12473,11 +11626,9 @@
       <c r="F409" t="s">
         <v>11</v>
       </c>
-      <c r="G409" t="s">
-        <v>12</v>
-      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12497,13 +11648,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>24</v>
-      </c>
-      <c r="G410" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12525,11 +11674,9 @@
       <c r="F411" t="s">
         <v>11</v>
       </c>
-      <c r="G411" t="s">
-        <v>12</v>
-      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12549,13 +11696,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>24</v>
-      </c>
-      <c r="G412" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12577,11 +11722,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12601,13 +11744,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>24</v>
-      </c>
-      <c r="G414" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12629,11 +11770,9 @@
       <c r="F415" t="s">
         <v>11</v>
       </c>
-      <c r="G415" t="s">
-        <v>12</v>
-      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12653,13 +11792,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>24</v>
-      </c>
-      <c r="G416" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12681,11 +11818,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>12</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12705,13 +11840,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>24</v>
-      </c>
-      <c r="G418" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12733,11 +11866,9 @@
       <c r="F419" t="s">
         <v>11</v>
       </c>
-      <c r="G419" t="s">
-        <v>12</v>
-      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12757,13 +11888,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>24</v>
-      </c>
-      <c r="G420" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12783,13 +11912,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>24</v>
-      </c>
-      <c r="G421" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12811,11 +11938,9 @@
       <c r="F422" t="s">
         <v>11</v>
       </c>
-      <c r="G422" t="s">
-        <v>12</v>
-      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12835,13 +11960,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>24</v>
-      </c>
-      <c r="G423" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12863,11 +11986,9 @@
       <c r="F424" t="s">
         <v>11</v>
       </c>
-      <c r="G424" t="s">
-        <v>12</v>
-      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12887,13 +12008,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>24</v>
-      </c>
-      <c r="G425" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12915,11 +12034,9 @@
       <c r="F426" t="s">
         <v>11</v>
       </c>
-      <c r="G426" t="s">
-        <v>12</v>
-      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12939,13 +12056,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>24</v>
-      </c>
-      <c r="G427" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12967,11 +12082,9 @@
       <c r="F428" t="s">
         <v>11</v>
       </c>
-      <c r="G428" t="s">
-        <v>12</v>
-      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12991,13 +12104,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>24</v>
-      </c>
-      <c r="G429" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13019,11 +12130,9 @@
       <c r="F430" t="s">
         <v>11</v>
       </c>
-      <c r="G430" t="s">
-        <v>12</v>
-      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13043,13 +12152,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>24</v>
-      </c>
-      <c r="G431" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13071,11 +12178,9 @@
       <c r="F432" t="s">
         <v>11</v>
       </c>
-      <c r="G432" t="s">
-        <v>12</v>
-      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13095,13 +12200,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>24</v>
-      </c>
-      <c r="G433" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13123,11 +12226,9 @@
       <c r="F434" t="s">
         <v>11</v>
       </c>
-      <c r="G434" t="s">
-        <v>12</v>
-      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13147,13 +12248,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>24</v>
-      </c>
-      <c r="G435" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13175,11 +12274,9 @@
       <c r="F436" t="s">
         <v>11</v>
       </c>
-      <c r="G436" t="s">
-        <v>12</v>
-      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13199,13 +12296,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>24</v>
-      </c>
-      <c r="G437" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13227,11 +12322,9 @@
       <c r="F438" t="s">
         <v>11</v>
       </c>
-      <c r="G438" t="s">
-        <v>12</v>
-      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13251,13 +12344,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>24</v>
-      </c>
-      <c r="G439" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13279,11 +12370,9 @@
       <c r="F440" t="s">
         <v>11</v>
       </c>
-      <c r="G440" t="s">
-        <v>12</v>
-      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13303,13 +12392,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>24</v>
-      </c>
-      <c r="G441" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13331,11 +12418,9 @@
       <c r="F442" t="s">
         <v>11</v>
       </c>
-      <c r="G442" t="s">
-        <v>12</v>
-      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13355,13 +12440,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>24</v>
-      </c>
-      <c r="G443" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13383,11 +12466,9 @@
       <c r="F444" t="s">
         <v>11</v>
       </c>
-      <c r="G444" t="s">
-        <v>12</v>
-      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13407,13 +12488,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>24</v>
-      </c>
-      <c r="G445" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13435,11 +12514,9 @@
       <c r="F446" t="s">
         <v>11</v>
       </c>
-      <c r="G446" t="s">
-        <v>12</v>
-      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13459,13 +12536,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>24</v>
-      </c>
-      <c r="G447" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13487,11 +12562,9 @@
       <c r="F448" t="s">
         <v>11</v>
       </c>
-      <c r="G448" t="s">
-        <v>12</v>
-      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13511,13 +12584,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>24</v>
-      </c>
-      <c r="G449" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13539,11 +12610,9 @@
       <c r="F450" t="s">
         <v>11</v>
       </c>
-      <c r="G450" t="s">
-        <v>12</v>
-      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13563,13 +12632,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>24</v>
-      </c>
-      <c r="G451" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13591,11 +12658,9 @@
       <c r="F452" t="s">
         <v>11</v>
       </c>
-      <c r="G452" t="s">
-        <v>12</v>
-      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13615,13 +12680,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>24</v>
-      </c>
-      <c r="G453" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13641,13 +12704,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>24</v>
-      </c>
-      <c r="G454" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13667,13 +12728,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>24</v>
-      </c>
-      <c r="G455" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13695,11 +12754,9 @@
       <c r="F456" t="s">
         <v>11</v>
       </c>
-      <c r="G456" t="s">
-        <v>12</v>
-      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13719,13 +12776,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>24</v>
-      </c>
-      <c r="G457" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13747,11 +12802,9 @@
       <c r="F458" t="s">
         <v>11</v>
       </c>
-      <c r="G458" t="s">
-        <v>12</v>
-      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13771,13 +12824,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>17</v>
-      </c>
-      <c r="G459" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13797,13 +12848,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>17</v>
-      </c>
-      <c r="G460" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13825,11 +12874,9 @@
       <c r="F461" t="s">
         <v>11</v>
       </c>
-      <c r="G461" t="s">
-        <v>12</v>
-      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13849,13 +12896,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>17</v>
-      </c>
-      <c r="G462" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13875,13 +12920,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>24</v>
-      </c>
-      <c r="G463" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13901,13 +12944,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>17</v>
-      </c>
-      <c r="G464" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13927,13 +12968,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>24</v>
-      </c>
-      <c r="G465" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13953,13 +12992,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>17</v>
-      </c>
-      <c r="G466" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13979,13 +13016,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>24</v>
-      </c>
-      <c r="G467" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14005,13 +13040,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>24</v>
-      </c>
-      <c r="G468" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14031,13 +13064,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>17</v>
-      </c>
-      <c r="G469" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14057,13 +13088,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>24</v>
-      </c>
-      <c r="G470" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14083,13 +13112,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>17</v>
-      </c>
-      <c r="G471" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14111,11 +13138,9 @@
       <c r="F472" t="s">
         <v>11</v>
       </c>
-      <c r="G472" t="s">
-        <v>12</v>
-      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14135,13 +13160,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>24</v>
-      </c>
-      <c r="G473" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14161,13 +13184,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>17</v>
-      </c>
-      <c r="G474" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14187,13 +13208,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>24</v>
-      </c>
-      <c r="G475" t="s">
-        <v>342</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14213,13 +13232,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>17</v>
-      </c>
-      <c r="G476" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14239,13 +13256,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>24</v>
-      </c>
-      <c r="G477" t="s">
-        <v>335</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14265,13 +13280,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>17</v>
-      </c>
-      <c r="G478" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14291,13 +13304,11 @@
         <v>10</v>
       </c>
       <c r="F479" t="s">
-        <v>17</v>
-      </c>
-      <c r="G479" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14317,13 +13328,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>17</v>
-      </c>
-      <c r="G480" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14345,11 +13354,9 @@
       <c r="F481" t="s">
         <v>11</v>
       </c>
-      <c r="G481" t="s">
-        <v>12</v>
-      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
